--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>【房东PC】异常拦截</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型设置只有双击才能勾选</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +956,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,18 +1679,38 @@
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42478</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42478</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
@@ -1690,17 +1722,37 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13">
+        <v>42478</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42478</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="M18" s="14"/>
       <c r="N18" s="13"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -279,6 +274,34 @@
   </si>
   <si>
     <t>费用类型设置只有双击才能勾选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -955,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,10 +1096,18 @@
       <c r="K2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
@@ -1117,10 +1148,18 @@
       <c r="K3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -1159,10 +1198,18 @@
       <c r="K4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1201,10 +1248,18 @@
       <c r="K5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -1243,10 +1298,18 @@
       <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
@@ -1287,10 +1350,18 @@
       <c r="K7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="L7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
@@ -1329,10 +1400,18 @@
       <c r="K8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -1371,10 +1450,18 @@
       <c r="K9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -1413,10 +1500,18 @@
       <c r="K10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1455,10 +1550,18 @@
       <c r="K11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="L11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1539,10 +1642,18 @@
       <c r="K13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1581,10 +1692,18 @@
       <c r="K14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P14" s="22">
         <v>1559</v>
       </c>
@@ -1625,10 +1744,18 @@
       <c r="K15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="L15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P15" s="22">
         <v>1574</v>
       </c>
@@ -1711,10 +1838,18 @@
       <c r="K17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="L17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1753,10 +1888,18 @@
       <c r="K18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="L18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -261,47 +261,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型设置只有双击才能勾选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>【房东PC】异常拦截</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
+    <t>测试目前没有发现异常拦截，上线后跟踪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用类型设置只有双击才能勾选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
+    <t>余星赞/邵明基/李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,16 +1101,16 @@
         <v>29</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="N2" s="13">
         <v>42479</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1149,16 +1153,16 @@
         <v>29</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="13">
         <v>42479</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1199,16 +1203,16 @@
         <v>29</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="13">
         <v>42479</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1249,16 +1253,16 @@
         <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="13">
         <v>42479</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1299,16 +1303,16 @@
         <v>29</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="13">
         <v>42479</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1351,16 +1355,16 @@
         <v>29</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="13">
         <v>42479</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1401,16 +1405,16 @@
         <v>29</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="13">
         <v>42479</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1451,16 +1455,16 @@
         <v>29</v>
       </c>
       <c r="L9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="N9" s="13">
         <v>42479</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1501,16 +1505,16 @@
         <v>29</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="13">
         <v>42479</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1551,16 +1555,16 @@
         <v>29</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" s="13">
         <v>42479</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -1643,16 +1647,16 @@
         <v>29</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N13" s="13">
         <v>42479</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -1693,16 +1697,16 @@
         <v>29</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="13">
         <v>42479</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="22">
         <v>1559</v>
@@ -1745,16 +1749,16 @@
         <v>29</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N15" s="13">
         <v>42479</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P15" s="22">
         <v>1574</v>
@@ -1764,12 +1768,12 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>62</v>
@@ -1796,14 +1800,24 @@
       <c r="K16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="L16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -1811,13 +1825,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -1839,16 +1853,16 @@
         <v>29</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N17" s="13">
         <v>42479</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1861,7 +1875,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>27</v>
@@ -1889,16 +1903,16 @@
         <v>29</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18" s="13">
         <v>42479</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_发现组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -222,10 +222,6 @@
   </si>
   <si>
     <t>房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东APP】自定义前端控制账单截止日期大于账单开始日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -980,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T218"/>
+  <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,16 +1097,16 @@
         <v>29</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="N2" s="13">
         <v>42479</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1153,16 +1149,16 @@
         <v>29</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="13">
         <v>42479</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1181,7 +1177,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -1203,16 +1199,16 @@
         <v>29</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="13">
         <v>42479</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1253,16 +1249,16 @@
         <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="13">
         <v>42479</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1303,16 +1299,16 @@
         <v>29</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6" s="13">
         <v>42479</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1355,16 +1351,16 @@
         <v>29</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="13">
         <v>42479</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1405,16 +1401,16 @@
         <v>29</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="13">
         <v>42479</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1455,16 +1451,16 @@
         <v>29</v>
       </c>
       <c r="L9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="N9" s="13">
         <v>42479</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1505,16 +1501,16 @@
         <v>29</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" s="13">
         <v>42479</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1555,16 +1551,16 @@
         <v>29</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" s="13">
         <v>42479</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -1583,7 +1579,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>15</v>
@@ -1599,15 +1595,23 @@
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="L12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1619,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
@@ -1641,24 +1645,26 @@
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="13">
         <v>42479</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="P13" s="22">
+        <v>1559</v>
+      </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="18"/>
@@ -1675,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
@@ -1691,25 +1697,25 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="13">
         <v>42479</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="22">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -1721,13 +1727,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
@@ -1743,29 +1749,29 @@
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="13">
         <v>42479</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1574</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -1773,13 +1779,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>15</v>
@@ -1795,43 +1801,41 @@
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="13">
         <v>42479</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>64</v>
+      <c r="B17" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -1847,22 +1851,22 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N17" s="13">
         <v>42479</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1871,58 +1875,30 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="13">
-        <v>42478</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="13">
-        <v>42478</v>
-      </c>
+      <c r="A18" s="21"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="13">
-        <v>42479</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2169,7 +2145,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
       <c r="J30" s="14"/>
@@ -2235,7 +2211,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="12"/>
       <c r="J33" s="14"/>
@@ -2823,25 +2799,25 @@
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2866,27 +2842,26 @@
       <c r="S61" s="17"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="9"/>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="17"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="4"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="10"/>
+      <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
@@ -4027,7 +4002,7 @@
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="5"/>
       <c r="G117" s="7"/>
       <c r="H117" s="5"/>
@@ -4148,11 +4123,11 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="5"/>
       <c r="G123" s="7"/>
@@ -5424,9 +5399,6 @@
       <c r="M183" s="7"/>
       <c r="N183" s="5"/>
       <c r="O183" s="4"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
       <c r="S183" s="4"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.15">
@@ -6040,24 +6012,6 @@
       <c r="N217" s="5"/>
       <c r="O217" s="4"/>
       <c r="S217" s="4"/>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A218" s="7"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="M218" s="7"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="4"/>
-      <c r="S218" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
